--- a/biology/Histoire de la zoologie et de la botanique/François_Ducloux/François_Ducloux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Ducloux/François_Ducloux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Ducloux</t>
+          <t>François_Ducloux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Ducloux est un missionnaire et important collecteur botaniste français, né le 14 novembre 1864 à Pélussin (Loire) et mort le 8 janvier 1945 à Kunming, capitale du Yunnan (Chine).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Ducloux</t>
+          <t>François_Ducloux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études secondaires à Lyon et y entre au grand Séminaire. Le 22 février 1888, il entre au séminaire des Missions étrangères. Il est ordonné prêtre le 21 septembre 1889 et part au Yunnan.
 En 1895, il est nommé supérieur du Séminaire à Kunming (昆明), y enseigne le latin et la théologie jusqu'en 1911 et y exerce la fonction d'économe. De 1911 à 1929, il est provicaire de la paroisse de l'Immaculée Conception tout en assurant l'instruction religieuse au noviciat des religieuses chinoises. À partir de 1929, il s'établit à l'évêché et assure les fonctions de vicaire délégué, la direction des religieuses chinoises. Très fatigué, il démissionne en 1934 de sa fonction de provicaire tout en restant provicaire honoraire et continuant d'assurer des fonctions d'enseignement.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Ducloux</t>
+          <t>François_Ducloux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De nombreuses plantes lui ont été dédiées :
 Aconitum duclouxii H.Lév. (1909) - Renonculacée de Chine
